--- a/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 6,95</t>
+          <t>-1,03; 6,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,75</t>
+          <t>-2,79; 1,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,06</t>
+          <t>-2,76; 2,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,22</t>
+          <t>0,85; 9,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,98</t>
+          <t>0,81; 6,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,39</t>
+          <t>1,09; 6,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,81</t>
+          <t>0,38; 6,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,36</t>
+          <t>-0,49; 3,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,75</t>
+          <t>0,07; 3,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,76</t>
+          <t>0,37; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,61</t>
+          <t>-0,65; 1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,74</t>
+          <t>-0,45; 1,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,44</t>
+          <t>1,4; 4,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,79</t>
+          <t>-0,17; 1,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,04</t>
+          <t>0,98; 3,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,45</t>
+          <t>1,26; 3,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,26</t>
+          <t>-0,13; 1,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,02</t>
+          <t>0,57; 2,03</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 1840,79</t>
+          <t>-11,32; 1368,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 1182,1</t>
+          <t>-76,92; 698,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,9; 745,85</t>
+          <t>-61,87; 578,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>101,05; —</t>
+          <t>99,61; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,82; —</t>
+          <t>69,29; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>136,48; 1326,02</t>
+          <t>132,87; 1322,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 561,25</t>
+          <t>-34,24; 637,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,83; 828,36</t>
+          <t>56,22; 857,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,46</t>
+          <t>-0,81; 1,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,15</t>
+          <t>-1,2; 1,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,8</t>
+          <t>-0,54; 1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,91</t>
+          <t>-0,29; 1,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,63</t>
+          <t>-0,52; 1,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,88</t>
+          <t>0,66; 2,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,26</t>
+          <t>-0,21; 1,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,1</t>
+          <t>-0,48; 1,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,0</t>
+          <t>0,4; 2,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 227,96</t>
+          <t>-47,47; 167,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 190,56</t>
+          <t>-65,16; 152,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 233,4</t>
+          <t>-35,93; 224,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 328,33</t>
+          <t>-23,83; 279,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 279,41</t>
+          <t>-36,19; 275,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,21; 499,77</t>
+          <t>25,93; 450,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 147,45</t>
+          <t>-16,84; 168,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 133,14</t>
+          <t>-33,9; 131,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,72; 232,1</t>
+          <t>23,01; 242,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,66</t>
+          <t>-0,41; 1,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,87</t>
+          <t>-0,97; 0,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,3</t>
+          <t>1,3; 4,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,42</t>
+          <t>-2,11; 0,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,32</t>
+          <t>-2,11; 0,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 42,3</t>
+          <t>0,95; 42,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,76</t>
+          <t>-0,89; 0,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,46</t>
+          <t>-1,21; 0,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 28,14</t>
+          <t>1,66; 28,41</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,42; 1077,9</t>
+          <t>-73,13; 828,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,13; 2381,27</t>
+          <t>68,72; 2115,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-76,21; 49,81</t>
+          <t>-76,66; 46,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,34; 41,21</t>
+          <t>-75,9; 55,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,17; 3652,58</t>
+          <t>41,59; 3753,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 99,72</t>
+          <t>-55,16; 90,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,43; 59,49</t>
+          <t>-70,94; 50,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>121,9; 3706,71</t>
+          <t>115,06; 3145,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,64</t>
+          <t>0,21; 2,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,66</t>
+          <t>-0,96; 0,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,56</t>
+          <t>0,63; 3,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,48</t>
+          <t>-0,01; 2,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,33</t>
+          <t>0,01; 2,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,05</t>
+          <t>0,85; 3,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,13</t>
+          <t>0,46; 2,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,21</t>
+          <t>-0,27; 1,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,91</t>
+          <t>1,21; 2,88</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 455,02</t>
+          <t>1,76; 503,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-71,47; 123,85</t>
+          <t>-72,03; 124,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>38,34; 628,37</t>
+          <t>29,64; 614,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,4; 360,46</t>
+          <t>-7,2; 311,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 306,25</t>
+          <t>-5,24; 298,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>40,85; 385,32</t>
+          <t>38,8; 428,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,99; 269,63</t>
+          <t>26,4; 288,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 152,78</t>
+          <t>-21,28; 159,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>76,83; 382,5</t>
+          <t>78,6; 403,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,55</t>
+          <t>0,32; 1,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,52</t>
+          <t>-0,48; 0,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,07</t>
+          <t>0,8; 2,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,58</t>
+          <t>0,39; 1,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,1</t>
+          <t>-0,09; 1,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,67; 14,59</t>
+          <t>1,65; 14,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,36</t>
+          <t>0,59; 1,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,64</t>
+          <t>-0,15; 0,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,25</t>
+          <t>1,48; 8,95</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17,21; 231,44</t>
+          <t>26,49; 220,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 78,81</t>
+          <t>-41,21; 70,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>49,9; 294,13</t>
+          <t>67,5; 308,81</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>31,14; 196,34</t>
+          <t>26,76; 183,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 128,71</t>
+          <t>-7,26; 124,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>133,02; 1630,57</t>
+          <t>129,18; 1346,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>42,42; 163,54</t>
+          <t>48,02; 170,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 76,05</t>
+          <t>-12,59; 72,08</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>136,43; 942,03</t>
+          <t>137,35; 974,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,67</t>
+          <t>0,57; 3,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,75</t>
+          <t>-0,64; 1,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,53</t>
+          <t>-0,59; 1,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 9,23</t>
+          <t>1,34; 4,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,95</t>
+          <t>-0,05; 1,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,25</t>
+          <t>0,91; 3,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 6,0</t>
+          <t>1,26; 3,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,38</t>
+          <t>-0,1; 1,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,67</t>
+          <t>0,52; 1,95</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>212,36%</t>
+          <t>265,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>610,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>179,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>460,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>544,8%</t>
+          <t>394,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>266,46%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>368,66%</t>
+          <t>218,78%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,25; 1171,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,4; 462,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,67; 463,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>135,79; 2743,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,03; 1518,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,22; 1848,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>128,89; 1193,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,4; 410,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,33; 676,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,84</t>
+          <t>-0,81; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,59</t>
+          <t>-1,2; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,55</t>
+          <t>-1,05; 1,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,39</t>
+          <t>-0,44; 1,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,71</t>
+          <t>-0,7; 1,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,19</t>
+          <t>0,41; 2,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,53</t>
+          <t>-0,27; 1,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,3</t>
+          <t>-0,56; 0,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,03</t>
+          <t>-0,05; 1,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>279,9%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>773,78%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>166,5%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>568,94%</t>
+          <t>133,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>448,51%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>247,82%</t>
+          <t>66,99%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 1368,57</t>
+          <t>-47,47; 167,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,92; 698,15</t>
+          <t>-65,16; 152,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,87; 578,28</t>
+          <t>-56,21; 163,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>99,61; —</t>
+          <t>-28,27; 239,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,54; 232,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,29; —</t>
+          <t>11,23; 378,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>132,87; 1322,36</t>
+          <t>-19,18; 156,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,24; 637,81</t>
+          <t>-35,22; 118,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,22; 857,42</t>
+          <t>-2,88; 193,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>22,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>13,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,32</t>
+          <t>-0,41; 1,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,04</t>
+          <t>-0,97; 0,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,72</t>
+          <t>1,19; 4,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,79</t>
+          <t>-2,11; 0,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,6</t>
+          <t>-2,11; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,93</t>
+          <t>0,68; 57,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,3</t>
+          <t>-0,89; 0,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,03</t>
+          <t>-1,21; 0,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,0</t>
+          <t>1,46; 42,65</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>452,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>-37,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>-39,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>166,25%</t>
+          <t>1190,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>-6,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>-28,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>102,08%</t>
+          <t>1141,54%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 167,3</t>
+          <t>-73,13; 828,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,16; 152,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 224,08</t>
+          <t>59,77; 2054,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 279,19</t>
+          <t>-76,66; 46,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 275,53</t>
+          <t>-75,9; 55,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,93; 450,3</t>
+          <t>38,91; 5973,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 168,57</t>
+          <t>-55,16; 90,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 131,59</t>
+          <t>-70,94; 50,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,01; 242,96</t>
+          <t>105,61; 4838,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,69</t>
+          <t>0,21; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,82</t>
+          <t>-0,96; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,42</t>
+          <t>0,7; 3,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,42</t>
+          <t>-0,01; 2,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,48</t>
+          <t>0,05; 2,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 42,44</t>
+          <t>0,67; 3,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,7</t>
+          <t>0,46; 2,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,39</t>
+          <t>-0,21; 1,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 28,41</t>
+          <t>1,13; 2,9</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>132,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>-16,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>478,41%</t>
+          <t>200,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-37,6%</t>
+          <t>103,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-39,85%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>721,47%</t>
+          <t>158,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>116,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,88%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>709,99%</t>
+          <t>177,04%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,13; 828,01</t>
+          <t>1,76; 503,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,03; 124,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>68,72; 2115,45</t>
+          <t>28,89; 623,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-76,66; 46,86</t>
+          <t>-7,2; 311,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 55,64</t>
+          <t>-4,05; 299,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,59; 3753,22</t>
+          <t>33,58; 425,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 90,98</t>
+          <t>26,4; 288,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,94; 50,62</t>
+          <t>-17,63; 171,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>115,06; 3145,08</t>
+          <t>72,26; 397,65</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,58</t>
+          <t>0,32; 1,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,67</t>
+          <t>-0,48; 0,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,44</t>
+          <t>0,6; 1,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,43</t>
+          <t>0,33; 1,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,34</t>
+          <t>-0,14; 1,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,13</t>
+          <t>1,46; 22,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,18</t>
+          <t>0,55; 1,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,26</t>
+          <t>-0,15; 0,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,88</t>
+          <t>1,3; 13,84</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>132,65%</t>
+          <t>104,19%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-16,06%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>198,3%</t>
+          <t>132,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>103,74%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>167,87%</t>
+          <t>601,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>116,09%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>181,34%</t>
+          <t>405,74%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,76; 503,4</t>
+          <t>26,49; 220,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-72,03; 124,54</t>
+          <t>-41,21; 70,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>29,64; 614,72</t>
+          <t>49,33; 277,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 311,73</t>
+          <t>22,25; 170,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 298,06</t>
+          <t>-10,84; 111,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>38,8; 428,4</t>
+          <t>114,05; 2237,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,4; 288,5</t>
+          <t>43,39; 159,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 159,53</t>
+          <t>-12,99; 69,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>78,6; 403,84</t>
+          <t>116,76; 1609,53</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 1,52</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 0,49</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 2,09</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 1,58</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 1,08</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 14,1</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 1,44</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 0,61</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 8,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>104,19%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>3,54%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>152,8%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>88,16%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>43,52%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>417,32%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>95,29%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>26,02%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>308,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>26,49; 220,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-41,21; 70,95</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>67,5; 308,81</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>26,76; 183,91</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 124,06</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>129,18; 1346,45</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>48,02; 170,67</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 72,08</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>137,35; 974,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,57</t>
+          <t>0,62; 3,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,36</t>
+          <t>-0,67; 1,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,45</t>
+          <t>-0,49; 1,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,13</t>
+          <t>1,5; 4,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,82</t>
+          <t>-0,1; 1,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,11</t>
+          <t>1,0; 3,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,52</t>
+          <t>1,29; 3,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,27</t>
+          <t>-0,11; 1,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,95</t>
+          <t>0,59; 2,12</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,25; 1171,03</t>
+          <t>15,86; 1145,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 462,81</t>
+          <t>-74,67; 447,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 463,52</t>
+          <t>-55,65; 548,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>135,79; 2743,26</t>
+          <t>136,49; 2709,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 1518,76</t>
+          <t>-50,88; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,22; 1848,33</t>
+          <t>65,69; 1901,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>128,89; 1193,27</t>
+          <t>138,45; 1021,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 410,5</t>
+          <t>-27,79; 387,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,33; 676,93</t>
+          <t>53,44; 730,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,32</t>
+          <t>-0,73; 1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,04</t>
+          <t>-1,0; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,26</t>
+          <t>-1,04; 1,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,7</t>
+          <t>-0,49; 1,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,5</t>
+          <t>-0,72; 1,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,66</t>
+          <t>0,43; 2,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,26</t>
+          <t>-0,35; 1,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,98</t>
+          <t>-0,56; 0,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,64</t>
+          <t>-0,11; 1,64</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 167,3</t>
+          <t>-45,11; 207,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,16; 152,89</t>
+          <t>-57,92; 152,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 163,14</t>
+          <t>-54,88; 148,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 239,69</t>
+          <t>-32,56; 271,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 232,43</t>
+          <t>-45,51; 252,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 378,18</t>
+          <t>12,26; 377,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 156,96</t>
+          <t>-21,66; 128,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 118,46</t>
+          <t>-35,04; 113,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 193,72</t>
+          <t>-6,21; 187,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,69</t>
+          <t>-0,63; 1,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,82</t>
+          <t>-0,92; 0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,19</t>
+          <t>1,11; 4,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,42</t>
+          <t>-2,08; 0,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,48</t>
+          <t>-2,06; 0,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 57,65</t>
+          <t>0,52; 54,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,7</t>
+          <t>-0,91; 0,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,39</t>
+          <t>-1,12; 0,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 42,65</t>
+          <t>1,43; 41,52</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,13; 828,01</t>
+          <t>-80,52; 736,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,77; 2054,54</t>
+          <t>52,08; 2055,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,66; 46,86</t>
+          <t>-77,22; 48,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 55,64</t>
+          <t>-79,17; 61,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,91; 5973,77</t>
+          <t>26,65; 4366,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 90,98</t>
+          <t>-54,66; 106,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-70,94; 50,62</t>
+          <t>-69,0; 63,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>105,61; 4838,21</t>
+          <t>97,87; 6163,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,58</t>
+          <t>0,17; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,67</t>
+          <t>-1,1; 0,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,67</t>
+          <t>0,66; 3,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,43</t>
+          <t>0,08; 2,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,4</t>
+          <t>-0,0; 2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,04</t>
+          <t>0,7; 3,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,18</t>
+          <t>0,45; 2,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,3</t>
+          <t>-0,24; 1,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,9</t>
+          <t>1,04; 2,95</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 503,4</t>
+          <t>2,48; 505,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,03; 124,54</t>
+          <t>-73,53; 159,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,89; 623,83</t>
+          <t>24,08; 617,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 311,73</t>
+          <t>-4,85; 332,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 299,77</t>
+          <t>-5,16; 316,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,58; 425,05</t>
+          <t>34,34; 429,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,4; 288,5</t>
+          <t>27,05; 295,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 171,35</t>
+          <t>-19,46; 151,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>72,26; 397,65</t>
+          <t>69,66; 384,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,52</t>
+          <t>0,31; 1,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,49</t>
+          <t>-0,46; 0,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,9</t>
+          <t>0,53; 1,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,53</t>
+          <t>0,33; 1,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,04</t>
+          <t>-0,11; 1,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,46; 22,9</t>
+          <t>1,48; 24,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,39</t>
+          <t>0,48; 1,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,61</t>
+          <t>-0,13; 0,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 13,84</t>
+          <t>1,26; 14,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>26,49; 220,44</t>
+          <t>19,85; 223,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 70,95</t>
+          <t>-39,25; 71,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>49,33; 277,39</t>
+          <t>43,71; 266,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,25; 170,84</t>
+          <t>20,86; 164,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 111,47</t>
+          <t>-6,87; 112,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>114,05; 2237,36</t>
+          <t>120,21; 2712,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>43,39; 159,19</t>
+          <t>40,07; 154,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 69,48</t>
+          <t>-10,64; 76,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>116,76; 1609,53</t>
+          <t>117,6; 1453,47</t>
         </is>
       </c>
     </row>
